--- a/Table_Processing/Filter_E.xlsx
+++ b/Table_Processing/Filter_E.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea/ContrastiveDecodingNew/Table_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F34CE8-70E4-224D-8B71-DB31842A7511}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBF821B-B160-9541-9BE0-C6DCC7A4ADB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="21900" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5920" yWindow="500" windowWidth="21900" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter E" sheetId="1" r:id="rId1"/>
@@ -381,16 +381,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>127022</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>279422</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>152411</xdr:rowOff>
+      <xdr:rowOff>101611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -413,7 +413,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11353800" y="12192000"/>
+          <a:off x="10845800" y="12141200"/>
           <a:ext cx="11887222" cy="5842011"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -426,15 +426,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>558822</xdr:colOff>
+      <xdr:colOff>254022</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>127011</xdr:rowOff>
+      <xdr:rowOff>177811</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -457,7 +457,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22352000" y="11963400"/>
+          <a:off x="22047200" y="12014200"/>
           <a:ext cx="11887222" cy="5842011"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -821,16 +821,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>304822</xdr:colOff>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>457222</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>25411</xdr:rowOff>
+      <xdr:rowOff>76211</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -853,7 +853,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23418800" y="30962600"/>
+          <a:off x="22910800" y="31013400"/>
           <a:ext cx="11887222" cy="5842011"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
